--- a/input/area_key_value_excel.xlsx
+++ b/input/area_key_value_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/333e6789a4c06fa2/Desktop/pedestrian_network/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_AD4DB114E441178AC67DF4BA3E51E6E0693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ECB1941-24EF-4120-BD26-5A7B83EBDEFC}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_AD4DB114E441178AC67DF4BA3E51E6E0693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F9FD447-4966-4788-8DC1-E9DC918C298B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>Key</t>
   </si>
@@ -36,7 +36,70 @@
     <t>wood</t>
   </si>
   <si>
-    <t xml:space="preserve">natural </t>
+    <t>Gruppe</t>
+  </si>
+  <si>
+    <t>Klasse</t>
+  </si>
+  <si>
+    <t>Einflussbereich</t>
+  </si>
+  <si>
+    <t>Bedeutung</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>Gruen-, Blau- &amp; Platzflaechen</t>
+  </si>
+  <si>
+    <t>Gewaesser</t>
+  </si>
+  <si>
+    <t>wetland</t>
+  </si>
+  <si>
+    <t>riverbank</t>
+  </si>
+  <si>
+    <t>reservoir</t>
+  </si>
+  <si>
+    <t>allotments</t>
+  </si>
+  <si>
+    <t>Kleingarten</t>
+  </si>
+  <si>
+    <t>meadow</t>
+  </si>
+  <si>
+    <t>Wald/Gehoelz</t>
+  </si>
+  <si>
+    <t>grassland</t>
+  </si>
+  <si>
+    <t>heath</t>
+  </si>
+  <si>
+    <t>park</t>
+  </si>
+  <si>
+    <t>Park/gestaltetes Gruen</t>
+  </si>
+  <si>
+    <t>cemetery</t>
+  </si>
+  <si>
+    <t>Friedhof</t>
+  </si>
+  <si>
+    <t>grave_yard</t>
+  </si>
+  <si>
+    <t>square</t>
   </si>
 </sst>
 </file>
@@ -52,15 +115,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,12 +137,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -358,28 +446,270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3">
+        <v>100</v>
+      </c>
+      <c r="F2" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3">
+        <v>100</v>
+      </c>
+      <c r="F3" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3">
+        <v>100</v>
+      </c>
+      <c r="F4" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3">
+        <v>100</v>
+      </c>
+      <c r="F5" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3">
+        <v>25</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3">
+        <v>25</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3">
+        <v>25</v>
+      </c>
+      <c r="F10" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3">
+        <v>100</v>
+      </c>
+      <c r="F11" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3">
+        <v>25</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="3">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="3">
+        <v>25</v>
+      </c>
+      <c r="F14" s="3">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
